--- a/flowcharts/통합흐름도_v04g.xlsx
+++ b/flowcharts/통합흐름도_v04g.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="13890" windowHeight="11535"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="13890" windowHeight="11535" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Main_Loop" sheetId="1" r:id="rId1"/>
@@ -14669,16 +14669,506 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>65048</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>65048</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>65048</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>68292</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="150" name="직사각형 149"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="632604" y="9564538"/>
+          <a:ext cx="2458528" cy="4029254"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="248" name="직사각형 247"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="632604" y="8062106"/>
+          <a:ext cx="2458528" cy="478045"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>68291</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="250" name="직사각형 249"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="632604" y="8813321"/>
+          <a:ext cx="2458528" cy="478045"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>64698</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>64696</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="252" name="직사각형 251"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="632604" y="9560943"/>
+          <a:ext cx="2458528" cy="478045"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>68292</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="223" name="직사각형 222"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="700896" y="10315757"/>
+          <a:ext cx="2321944" cy="1092678"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>68292</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="172" name="직사각형 171"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="700896" y="11203558"/>
+          <a:ext cx="2321944" cy="1843895"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>6457</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>2633</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="꺾인 연결선 5"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="263" idx="0"/>
+          <a:endCxn id="20" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1799724" y="1976628"/>
+          <a:ext cx="2633" cy="13483951"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>6457</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14687,8 +15177,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1212694" y="1770256"/>
-          <a:ext cx="910683" cy="195146"/>
+          <a:off x="1375475" y="1846409"/>
+          <a:ext cx="949272" cy="200658"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartTerminator">
           <a:avLst/>
@@ -14730,16 +15220,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>712</xdr:colOff>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>32790</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>133</xdr:col>
-      <xdr:colOff>65047</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>32524</xdr:rowOff>
+      <xdr:col>139</xdr:col>
+      <xdr:colOff>64335</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14748,8 +15238,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3815358" y="2095500"/>
-          <a:ext cx="5333287" cy="5496622"/>
+          <a:off x="4218214" y="2139176"/>
+          <a:ext cx="5354792" cy="5518924"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15584,14 +16074,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>67804</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>2361</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>67804</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -15602,8 +16092,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="627256" y="2097861"/>
-          <a:ext cx="2081561" cy="387932"/>
+          <a:off x="629618" y="2178581"/>
+          <a:ext cx="2440983" cy="404470"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15643,24 +16133,13 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>global</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> NRun_VectorField</a:t>
+            <a:t>&lt;Init Vars for</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr marL="0" indent="0" algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -15668,19 +16147,29 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>globa </a:t>
+            <a:t> Performance</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
-              <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>RunTime_VectorField</a:t>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Measurement&gt;</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
             <a:solidFill>
@@ -15697,78 +16186,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>65048</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>65048</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>67804</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>2361</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="꺾인 연결선 5"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="22" idx="0"/>
-          <a:endCxn id="20" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="1668036" y="1965402"/>
-          <a:ext cx="1" cy="132459"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>51110</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>67804</xdr:colOff>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="직사각형 32"/>
+        <xdr:cNvPr id="34" name="직사각형 33"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="627256" y="2601951"/>
-          <a:ext cx="2081561" cy="209086"/>
+          <a:off x="629618" y="2650857"/>
+          <a:ext cx="2440983" cy="813660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15808,7 +16245,68 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>StartTime = time.time()</a:t>
+            <a:t>&lt;Read</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Global Var Space</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>LCoreReverseIndex</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>M2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>BodyForce</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
             <a:solidFill>
@@ -15826,25 +16324,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>65048</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:colOff>67804</xdr:colOff>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>65048</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>67804</xdr:colOff>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="직사각형 33"/>
+        <xdr:cNvPr id="35" name="직사각형 34"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="627255" y="2941135"/>
-          <a:ext cx="2081561" cy="780585"/>
+          <a:off x="629618" y="3532323"/>
+          <a:ext cx="2440983" cy="745855"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15884,112 +16382,19 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>&lt;Core Info&gt;</a:t>
+            <a:t>&lt;Init</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>LCoreReverseIndex</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
-              <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>M2</a:t>
+            <a:t> Local Vars</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>BodyForce</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>65048</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>65048</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="직사각형 34"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="627255" y="3851818"/>
-          <a:ext cx="2081561" cy="390292"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
               <a:solidFill>
@@ -15999,7 +16404,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>&lt;Initialize&gt;</a:t>
+            <a:t>&gt;</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -16010,90 +16415,19 @@
             </a:rPr>
             <a:t>Accel = [0, ...]</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>65048</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>65047</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>65048</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>65048</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="직사각형 35"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="627255" y="4372206"/>
-          <a:ext cx="2081561" cy="520391"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>&lt;Make Indices&gt;</a:t>
-          </a:r>
         </a:p>
         <a:p>
           <a:pPr marL="0" indent="0" algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR">
-              <a:effectLst/>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>IndexBlock = 0</a:t>
+            <a:t> IndexBlock = 0</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -16103,21 +16437,12 @@
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
-              <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>IndexW = 0</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -16126,25 +16451,512 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>65048</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>65047</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>3532</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>67804</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="265" name="그룹 264"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="561350" y="4385032"/>
+          <a:ext cx="2479257" cy="1104376"/>
+          <a:chOff x="559055" y="4552930"/>
+          <a:chExt cx="2579351" cy="1149155"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="38" name="직사각형 37"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="559055" y="4685044"/>
+            <a:ext cx="2579351" cy="1017041"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="3175"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="39" name="직사각형 38"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="698114" y="4820649"/>
+            <a:ext cx="2304683" cy="199915"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="12700"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>StateOfBase = w[0:6]</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="37" name="직사각형 36"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="630330" y="4552930"/>
+            <a:ext cx="2440272" cy="199916"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="12700"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>&lt;Fix</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> "FIXED TO BASE" Blocks</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>&gt;</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="40" name="직사각형 39"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="626838" y="5227449"/>
+            <a:ext cx="2443763" cy="406833"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="3175"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="41" name="직사각형 40"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="698114" y="5091860"/>
+            <a:ext cx="2304683" cy="199916"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="12700"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>for (K,L) in Core['KLFixedToBase']</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="49" name="그룹 48"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="765896" y="5371107"/>
+            <a:ext cx="2169095" cy="195372"/>
+            <a:chOff x="4205684" y="1640263"/>
+            <a:chExt cx="1945328" cy="191769"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="46" name="직사각형 45"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4269988" y="1640263"/>
+              <a:ext cx="1821366" cy="191769"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="12700"/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" indent="0" algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>PutValToVect (K,L,StateOfBase)</a:t>
+              </a:r>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="47" name="직사각형 46"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4205684" y="1640285"/>
+              <a:ext cx="64304" cy="191747"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="12700"/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" indent="0" algn="ctr"/>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="48" name="직사각형 47"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6086708" y="1640285"/>
+              <a:ext cx="64304" cy="191747"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="12700"/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" indent="0" algn="ctr"/>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>225</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="직사각형 37"/>
+        <xdr:cNvPr id="50" name="직사각형 49"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="562207" y="5152793"/>
-          <a:ext cx="2211659" cy="1300976"/>
+          <a:off x="564312" y="6559671"/>
+          <a:ext cx="2595113" cy="8195094"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16191,578 +17003,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>65048</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="직사각형 38"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="627256" y="5347940"/>
-          <a:ext cx="2081561" cy="195145"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>StateOfBase = w[0:6]</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>65048</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>65048</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>65048</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="직사각형 36"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="627255" y="5022695"/>
-          <a:ext cx="2081561" cy="195146"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>&lt;Fix</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> "FIXED TO BASE" Blocks</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>&gt;</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>65048</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>65048</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>65048</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="직사각형 39"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="627255" y="5803280"/>
-          <a:ext cx="2081561" cy="585440"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="3175"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>65048</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>65048</xdr:colOff>
+      <xdr:colOff>60960</xdr:colOff>
       <xdr:row>87</xdr:row>
-      <xdr:rowOff>65049</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="직사각형 40"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="692304" y="5673184"/>
-          <a:ext cx="1951464" cy="195145"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>for (K,L) in Core['KLFixedToBase']</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>745</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>8129</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>59658</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>2</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="49" name="그룹 48"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="694709" y="6199379"/>
-          <a:ext cx="2031949" cy="400087"/>
-          <a:chOff x="4205684" y="1640263"/>
-          <a:chExt cx="1945328" cy="191769"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="46" name="직사각형 45"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4269988" y="1640263"/>
-            <a:ext cx="1821366" cy="191769"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="12700"/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-            <a:prstTxWarp prst="textNoShape">
-              <a:avLst/>
-            </a:prstTxWarp>
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>PutValToVect</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>(K,L,StateOfBase)</a:t>
-            </a:r>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="47" name="직사각형 46"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4205684" y="1640285"/>
-            <a:ext cx="64304" cy="191747"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="12700"/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-            <a:prstTxWarp prst="textNoShape">
-              <a:avLst/>
-            </a:prstTxWarp>
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="48" name="직사각형 47"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6086708" y="1640285"/>
-            <a:ext cx="64304" cy="191747"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="12700"/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-            <a:prstTxWarp prst="textNoShape">
-              <a:avLst/>
-            </a:prstTxWarp>
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>104</xdr:rowOff>
+      <xdr:rowOff>3810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>205</xdr:row>
-      <xdr:rowOff>64942</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="직사각형 49"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="558512" y="7026956"/>
-          <a:ext cx="2402897" cy="6494213"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="3175"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -16771,8 +17021,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="627256" y="6583866"/>
-          <a:ext cx="2081561" cy="520390"/>
+          <a:off x="624840" y="6111240"/>
+          <a:ext cx="2476500" cy="548640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16884,7 +17134,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> in xrange(LCoreReverseIndex)</a:t>
+            <a:t> in xrange(LCoreReverseIndex):</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -16893,16 +17143,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>51109</xdr:rowOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>51110</xdr:rowOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -16911,8 +17161,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="627256" y="7220414"/>
-          <a:ext cx="2081561" cy="195147"/>
+          <a:off x="701040" y="6724650"/>
+          <a:ext cx="2331720" cy="205741"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16986,15 +17236,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17004,8 +17254,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="627256" y="7559598"/>
-          <a:ext cx="2081561" cy="390292"/>
+          <a:off x="701040" y="6998970"/>
+          <a:ext cx="2331720" cy="411480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17102,16 +17352,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>4647</xdr:rowOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>128</xdr:row>
-      <xdr:rowOff>4648</xdr:rowOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -17120,8 +17370,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="627256" y="8084635"/>
-          <a:ext cx="2081561" cy="390293"/>
+          <a:off x="701040" y="7479030"/>
+          <a:ext cx="2331720" cy="411481"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17241,34 +17491,379 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>128</xdr:row>
-      <xdr:rowOff>4647</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>3254</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>10</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>32686</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>68292</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="82" name="그룹 81"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1343526" y="7838820"/>
+          <a:ext cx="1010252" cy="260551"/>
+          <a:chOff x="584392" y="8717570"/>
+          <a:chExt cx="1032586" cy="260629"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="76" name="다이아몬드 75"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="584392" y="8717570"/>
+            <a:ext cx="933946" cy="260629"/>
+          </a:xfrm>
+          <a:prstGeom prst="diamond">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="12700"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:glow rad="50800">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>K,L==0,0</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="77" name="직사각형 76"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1485083" y="8726891"/>
+            <a:ext cx="131895" cy="132818"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="800">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Y</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>869</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>3254</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>61103</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>68281</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="83" name="그룹 82"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3234356" y="7838820"/>
+          <a:ext cx="1168142" cy="260540"/>
+          <a:chOff x="4174053" y="1638483"/>
+          <a:chExt cx="1197059" cy="191955"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="84" name="직사각형 83"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4238358" y="1638486"/>
+            <a:ext cx="1068450" cy="191769"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="12700"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Force_Base()</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="85" name="직사각형 84"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4174053" y="1638483"/>
+            <a:ext cx="64304" cy="191747"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="12700"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="86" name="직사각형 85"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5306808" y="1638691"/>
+            <a:ext cx="64304" cy="191747"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="12700"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>1475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>869</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>1627</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="78" name="구부러진 연결선 27"/>
+        <xdr:cNvPr id="87" name="꺾인 연결선 5"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="56" idx="2"/>
-          <a:endCxn id="76" idx="0"/>
+          <a:stCxn id="85" idx="1"/>
+          <a:endCxn id="76" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="1338621" y="8515998"/>
-          <a:ext cx="129833" cy="605118"/>
+        <a:xfrm flipH="1">
+          <a:off x="2339915" y="8336749"/>
+          <a:ext cx="1025256" cy="152"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln w="12700">
           <a:solidFill>
@@ -17295,399 +17890,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>11</xdr:rowOff>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>46727</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>35943</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>2292</xdr:colOff>
-      <xdr:row>134</xdr:row>
-      <xdr:rowOff>2292</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="129" name="그룹 128"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="625929" y="8980725"/>
-          <a:ext cx="2451577" cy="274424"/>
-          <a:chOff x="623455" y="8585500"/>
-          <a:chExt cx="2340246" cy="262053"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="82" name="그룹 81"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="623455" y="8585500"/>
-            <a:ext cx="988137" cy="259762"/>
-            <a:chOff x="627256" y="8725068"/>
-            <a:chExt cx="989722" cy="260358"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="76" name="다이아몬드 75"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="627256" y="8725068"/>
-              <a:ext cx="911102" cy="260358"/>
-            </a:xfrm>
-            <a:prstGeom prst="diamond">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-            <a:ln w="12700"/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-              <a:prstTxWarp prst="textNoShape">
-                <a:avLst/>
-              </a:prstTxWarp>
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr marL="0" indent="0" algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst>
-                    <a:glow rad="50800">
-                      <a:schemeClr val="bg1"/>
-                    </a:glow>
-                  </a:effectLst>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>K,L==0,0</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="77" name="직사각형 76"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1485083" y="8726891"/>
-              <a:ext cx="131895" cy="132818"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="12700">
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-              <a:prstTxWarp prst="textNoShape">
-                <a:avLst/>
-              </a:prstTxWarp>
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr marL="0" indent="0" algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" altLang="ko-KR" sz="800">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>Y</a:t>
-              </a:r>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="83" name="그룹 82"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="1793177" y="8587780"/>
-            <a:ext cx="1170524" cy="259773"/>
-            <a:chOff x="4205684" y="1640261"/>
-            <a:chExt cx="1170133" cy="191771"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="84" name="직사각형 83"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4269989" y="1640263"/>
-              <a:ext cx="1041524" cy="191769"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln w="12700"/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-              <a:prstTxWarp prst="textNoShape">
-                <a:avLst/>
-              </a:prstTxWarp>
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr marL="0" indent="0" algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>Force_Base()</a:t>
-              </a:r>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="85" name="직사각형 84"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4205684" y="1640285"/>
-              <a:ext cx="64304" cy="191747"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln w="12700"/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-              <a:prstTxWarp prst="textNoShape">
-                <a:avLst/>
-              </a:prstTxWarp>
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr marL="0" indent="0" algn="ctr"/>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="86" name="직사각형 85"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5311513" y="1640261"/>
-              <a:ext cx="64304" cy="191747"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln w="12700"/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-              <a:prstTxWarp prst="textNoShape">
-                <a:avLst/>
-              </a:prstTxWarp>
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr marL="0" indent="0" algn="ctr"/>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="87" name="꺾인 연결선 5"/>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="85" idx="1"/>
-            <a:endCxn id="76" idx="3"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipH="1" flipV="1">
-            <a:off x="1532659" y="8715381"/>
-            <a:ext cx="260518" cy="11"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="12700">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>67235</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>99</xdr:col>
-      <xdr:colOff>41103</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>67235</xdr:rowOff>
+      <xdr:col>115</xdr:col>
+      <xdr:colOff>19538</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>35943</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -17696,8 +17908,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4027714" y="8095449"/>
-          <a:ext cx="3170746" cy="1360715"/>
+          <a:off x="4909490" y="9761469"/>
+          <a:ext cx="3035851" cy="1303421"/>
           <a:chOff x="3992096" y="8009404"/>
           <a:chExt cx="3133926" cy="1344706"/>
         </a:xfrm>
@@ -18589,399 +18801,415 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>135</xdr:row>
-      <xdr:rowOff>62662</xdr:rowOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>2292</xdr:colOff>
-      <xdr:row>139</xdr:row>
-      <xdr:rowOff>64943</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>14719</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>65032</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="130" name="그룹 129"/>
+        <xdr:cNvPr id="131" name="그룹 130"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="625929" y="9383555"/>
-          <a:ext cx="2451577" cy="274424"/>
-          <a:chOff x="623455" y="8585500"/>
-          <a:chExt cx="2340246" cy="262053"/>
+          <a:off x="1343526" y="8552447"/>
+          <a:ext cx="927114" cy="260546"/>
+          <a:chOff x="692306" y="8717835"/>
+          <a:chExt cx="924672" cy="260492"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="131" name="그룹 130"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="137" name="다이아몬드 136"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
           <a:xfrm>
-            <a:off x="623455" y="8585500"/>
-            <a:ext cx="988137" cy="259762"/>
-            <a:chOff x="627256" y="8725068"/>
-            <a:chExt cx="989722" cy="260358"/>
+            <a:off x="692306" y="8717835"/>
+            <a:ext cx="910709" cy="260492"/>
           </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="137" name="다이아몬드 136"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="627256" y="8725068"/>
-              <a:ext cx="911102" cy="260358"/>
-            </a:xfrm>
-            <a:prstGeom prst="diamond">
+          <a:prstGeom prst="diamond">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="12700"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
               <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-            <a:ln w="12700"/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-              <a:prstTxWarp prst="textNoShape">
-                <a:avLst/>
-              </a:prstTxWarp>
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr marL="0" indent="0" algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst>
-                    <a:glow rad="50800">
-                      <a:schemeClr val="bg1"/>
-                    </a:glow>
-                  </a:effectLst>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>K,L==1,0</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="138" name="직사각형 137"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1485083" y="8726891"/>
-              <a:ext cx="131895" cy="132818"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:glow rad="50800">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>K,L==1,0</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="138" name="직사각형 137"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1485083" y="8726891"/>
+            <a:ext cx="131895" cy="132818"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
               <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="12700">
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-              <a:prstTxWarp prst="textNoShape">
-                <a:avLst/>
-              </a:prstTxWarp>
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr marL="0" indent="0" algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" altLang="ko-KR" sz="800">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>Y</a:t>
-              </a:r>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="800">
                 <a:solidFill>
                   <a:schemeClr val="dk1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="132" name="그룹 131"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
+              </a:rPr>
+              <a:t>Y</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>62851</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>59589</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="132" name="그룹 131"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3233487" y="8550127"/>
+          <a:ext cx="1173079" cy="257423"/>
+          <a:chOff x="4205000" y="1638576"/>
+          <a:chExt cx="1168647" cy="191861"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="134" name="직사각형 133"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
           <a:xfrm>
-            <a:off x="1793177" y="8587780"/>
-            <a:ext cx="1170524" cy="259773"/>
-            <a:chOff x="4205684" y="1640261"/>
-            <a:chExt cx="1170133" cy="191771"/>
+            <a:off x="4269924" y="1638668"/>
+            <a:ext cx="1041524" cy="191769"/>
           </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="134" name="직사각형 133"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4269989" y="1640263"/>
-              <a:ext cx="1041524" cy="191769"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="12700"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
               <a:avLst/>
-            </a:prstGeom>
-            <a:ln w="12700"/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-              <a:prstTxWarp prst="textNoShape">
-                <a:avLst/>
-              </a:prstTxWarp>
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr marL="0" indent="0" algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>Force_CSB()</a:t>
-              </a:r>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
                 <a:solidFill>
                   <a:schemeClr val="dk1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="135" name="직사각형 134"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4205684" y="1640285"/>
-              <a:ext cx="64304" cy="191747"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln w="12700"/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-              <a:prstTxWarp prst="textNoShape">
-                <a:avLst/>
-              </a:prstTxWarp>
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr marL="0" indent="0" algn="ctr"/>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="136" name="직사각형 135"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5311513" y="1640261"/>
-              <a:ext cx="64304" cy="191747"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln w="12700"/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-              <a:prstTxWarp prst="textNoShape">
-                <a:avLst/>
-              </a:prstTxWarp>
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr marL="0" indent="0" algn="ctr"/>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="133" name="꺾인 연결선 5"/>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="135" idx="1"/>
-            <a:endCxn id="137" idx="3"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
+              </a:rPr>
+              <a:t>Force_CSB()</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="135" name="직사각형 134"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
         <xdr:spPr>
-          <a:xfrm flipH="1" flipV="1">
-            <a:off x="1532659" y="8715381"/>
-            <a:ext cx="260518" cy="11"/>
+          <a:xfrm>
+            <a:off x="4205000" y="1638690"/>
+            <a:ext cx="64304" cy="191747"/>
           </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
+          <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-          <a:ln w="12700">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
+          <a:ln w="12700"/>
         </xdr:spPr>
         <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
           </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
           </a:fillRef>
           <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="dk1"/>
           </a:effectRef>
           <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
+            <a:schemeClr val="dk1"/>
           </a:fontRef>
         </xdr:style>
-      </xdr:cxnSp>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="136" name="직사각형 135"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5309343" y="1638576"/>
+            <a:ext cx="64304" cy="191746"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="12700"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>62663</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>59</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>61300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>180</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>66663</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="133" name="꺾인 연결선 5"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="135" idx="1"/>
+          <a:endCxn id="137" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2339974" y="9079498"/>
+          <a:ext cx="1024328" cy="5363"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>188</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>13138</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -18990,10 +19218,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="625929" y="9791770"/>
-          <a:ext cx="1633037" cy="277516"/>
-          <a:chOff x="623455" y="9362527"/>
-          <a:chExt cx="1558816" cy="262053"/>
+          <a:off x="1343526" y="9269329"/>
+          <a:ext cx="2281175" cy="273822"/>
+          <a:chOff x="1272889" y="9356313"/>
+          <a:chExt cx="2273204" cy="265987"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
@@ -19003,10 +19231,10 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="623455" y="9362527"/>
-            <a:ext cx="988137" cy="259762"/>
-            <a:chOff x="627256" y="8725068"/>
-            <a:chExt cx="989722" cy="260358"/>
+            <a:off x="1272889" y="9356313"/>
+            <a:ext cx="974153" cy="262561"/>
+            <a:chOff x="1277731" y="8718859"/>
+            <a:chExt cx="975715" cy="263164"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
@@ -19016,8 +19244,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="627256" y="8725068"/>
-              <a:ext cx="911102" cy="260358"/>
+              <a:off x="1277731" y="8724924"/>
+              <a:ext cx="910668" cy="257099"/>
             </a:xfrm>
             <a:prstGeom prst="diamond">
               <a:avLst/>
@@ -19080,7 +19308,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1485083" y="8726891"/>
+              <a:off x="2121551" y="8718859"/>
               <a:ext cx="131895" cy="132818"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -19148,8 +19376,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipH="1" flipV="1">
-            <a:off x="1533098" y="9492408"/>
-            <a:ext cx="259334" cy="2286"/>
+            <a:off x="2182099" y="9490624"/>
+            <a:ext cx="974155" cy="1790"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -19182,7 +19410,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1792432" y="9364807"/>
+            <a:off x="3156254" y="9362527"/>
             <a:ext cx="389839" cy="259773"/>
           </a:xfrm>
           <a:prstGeom prst="ellipse">
@@ -19245,82 +19473,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>149</xdr:row>
-      <xdr:rowOff>64943</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>204</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="150" name="직사각형 149"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="623455" y="9884352"/>
-          <a:ext cx="2078182" cy="3506932"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="3175"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>150</xdr:row>
-      <xdr:rowOff>64943</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -19329,8 +19491,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="688398" y="9754466"/>
-          <a:ext cx="1948295" cy="194829"/>
+          <a:off x="701040" y="9467850"/>
+          <a:ext cx="2331720" cy="205740"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19387,7 +19549,31 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>&lt;Blocks&gt;</a:t>
+            <a:t>&lt;Froces</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> on Normal </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Blocks&gt;</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -19396,398 +19582,211 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>160</xdr:row>
-      <xdr:rowOff>64943</xdr:rowOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>3161</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>68292</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>2</xdr:colOff>
-      <xdr:row>165</xdr:row>
-      <xdr:rowOff>2280</xdr:rowOff>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>68292</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>3592</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="153" name="그룹 152"/>
+        <xdr:cNvPr id="155" name="그룹 154"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="693964" y="11086729"/>
-          <a:ext cx="2585359" cy="277515"/>
-          <a:chOff x="623455" y="8585500"/>
-          <a:chExt cx="2467843" cy="262053"/>
+          <a:off x="3301819" y="10836555"/>
+          <a:ext cx="1303381" cy="261155"/>
+          <a:chOff x="4205684" y="1640261"/>
+          <a:chExt cx="1297686" cy="191771"/>
         </a:xfrm>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
       </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="154" name="그룹 153"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="157" name="직사각형 156"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
           <a:xfrm>
-            <a:off x="623455" y="8585500"/>
-            <a:ext cx="988137" cy="259762"/>
-            <a:chOff x="627256" y="8725068"/>
-            <a:chExt cx="989722" cy="260358"/>
+            <a:off x="4269988" y="1640263"/>
+            <a:ext cx="1168456" cy="191769"/>
           </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="160" name="다이아몬드 159"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="627256" y="8725068"/>
-              <a:ext cx="911102" cy="260358"/>
-            </a:xfrm>
-            <a:prstGeom prst="diamond">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln w="12700"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
               <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-            <a:ln w="12700"/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-              <a:prstTxWarp prst="textNoShape">
-                <a:avLst/>
-              </a:prstTxWarp>
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr marL="0" indent="0" algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst>
-                    <a:glow rad="50800">
-                      <a:schemeClr val="bg1"/>
-                    </a:glow>
-                  </a:effectLst>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>K==0</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="161" name="직사각형 160"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1485083" y="8726891"/>
-              <a:ext cx="131895" cy="132818"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="12700">
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-              <a:prstTxWarp prst="textNoShape">
-                <a:avLst/>
-              </a:prstTxWarp>
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr marL="0" indent="0" algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" altLang="ko-KR" sz="800">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>Y</a:t>
-              </a:r>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
                 <a:solidFill>
                   <a:schemeClr val="dk1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="155" name="그룹 154"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
+              </a:rPr>
+              <a:t>Force_ReflectorL()</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="158" name="직사각형 157"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
           <a:xfrm>
-            <a:off x="1793178" y="8587780"/>
-            <a:ext cx="1298120" cy="259773"/>
-            <a:chOff x="4205684" y="1640261"/>
-            <a:chExt cx="1297686" cy="191771"/>
+            <a:off x="4205684" y="1640285"/>
+            <a:ext cx="64304" cy="191747"/>
           </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="157" name="직사각형 156"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4269988" y="1640263"/>
-              <a:ext cx="1168456" cy="191769"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln w="12700"/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-              <a:prstTxWarp prst="textNoShape">
-                <a:avLst/>
-              </a:prstTxWarp>
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr marL="0" indent="0" algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>Force_ReflectorL()</a:t>
-              </a:r>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="158" name="직사각형 157"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4205684" y="1640285"/>
-              <a:ext cx="64304" cy="191747"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln w="12700"/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-              <a:prstTxWarp prst="textNoShape">
-                <a:avLst/>
-              </a:prstTxWarp>
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr marL="0" indent="0" algn="ctr"/>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="159" name="직사각형 158"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5439066" y="1640261"/>
-              <a:ext cx="64304" cy="191747"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln w="12700"/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-              <a:prstTxWarp prst="textNoShape">
-                <a:avLst/>
-              </a:prstTxWarp>
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr marL="0" indent="0" algn="ctr"/>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="156" name="꺾인 연결선 5"/>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="158" idx="1"/>
-            <a:endCxn id="160" idx="3"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipH="1" flipV="1">
-            <a:off x="1532659" y="8715381"/>
-            <a:ext cx="260518" cy="11"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
+          <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-          <a:ln w="12700">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
+          <a:grpFill/>
+          <a:ln w="12700"/>
         </xdr:spPr>
         <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
           </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
           </a:fillRef>
           <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="dk1"/>
           </a:effectRef>
           <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
+            <a:schemeClr val="dk1"/>
           </a:fontRef>
         </xdr:style>
-      </xdr:cxnSp>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="159" name="직사각형 158"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5439066" y="1640261"/>
+            <a:ext cx="64304" cy="191747"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln w="12700"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>153</xdr:row>
+      <xdr:row>151</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>159</xdr:row>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -19797,12 +19796,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="688398" y="10079182"/>
-          <a:ext cx="1948295" cy="389660"/>
+          <a:off x="769620" y="9742170"/>
+          <a:ext cx="2194560" cy="411481"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
         <a:ln w="12700">
           <a:prstDash val="sysDash"/>
         </a:ln>
@@ -19897,415 +19899,230 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>64941</xdr:colOff>
-      <xdr:row>166</xdr:row>
-      <xdr:rowOff>64943</xdr:rowOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>68292</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>171</xdr:row>
-      <xdr:rowOff>2280</xdr:rowOff>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>979</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>3204</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="163" name="그룹 162"/>
+        <xdr:cNvPr id="165" name="그룹 164"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="690870" y="11494943"/>
-          <a:ext cx="2588451" cy="277516"/>
-          <a:chOff x="623455" y="8585500"/>
-          <a:chExt cx="2467843" cy="262053"/>
+          <a:off x="3301779" y="11224461"/>
+          <a:ext cx="1301279" cy="263888"/>
+          <a:chOff x="4205684" y="1640261"/>
+          <a:chExt cx="1297686" cy="191771"/>
         </a:xfrm>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
       </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="164" name="그룹 163"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="167" name="직사각형 166"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
           <a:xfrm>
-            <a:off x="623455" y="8585500"/>
-            <a:ext cx="988137" cy="259762"/>
-            <a:chOff x="627256" y="8725068"/>
-            <a:chExt cx="989722" cy="260358"/>
+            <a:off x="4269988" y="1640263"/>
+            <a:ext cx="1168456" cy="191769"/>
           </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="170" name="다이아몬드 169"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="627256" y="8725068"/>
-              <a:ext cx="911102" cy="260358"/>
-            </a:xfrm>
-            <a:prstGeom prst="diamond">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln w="12700"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
               <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-            <a:ln w="12700"/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-              <a:prstTxWarp prst="textNoShape">
-                <a:avLst/>
-              </a:prstTxWarp>
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr marL="0" indent="0" algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst>
-                    <a:glow rad="50800">
-                      <a:schemeClr val="bg1"/>
-                    </a:glow>
-                  </a:effectLst>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>K==M2-1</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="171" name="직사각형 170"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1485083" y="8726891"/>
-              <a:ext cx="131895" cy="132818"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="12700">
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-              <a:prstTxWarp prst="textNoShape">
-                <a:avLst/>
-              </a:prstTxWarp>
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr marL="0" indent="0" algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" altLang="ko-KR" sz="800">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>Y</a:t>
-              </a:r>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
                 <a:solidFill>
                   <a:schemeClr val="dk1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="165" name="그룹 164"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
+              </a:rPr>
+              <a:t>Force_ReflectorR()</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="168" name="직사각형 167"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
           <a:xfrm>
-            <a:off x="1793178" y="8587780"/>
-            <a:ext cx="1298120" cy="259773"/>
-            <a:chOff x="4205684" y="1640261"/>
-            <a:chExt cx="1297686" cy="191771"/>
+            <a:off x="4205684" y="1640285"/>
+            <a:ext cx="64304" cy="191747"/>
           </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="167" name="직사각형 166"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4269988" y="1640263"/>
-              <a:ext cx="1168456" cy="191769"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln w="12700"/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-              <a:prstTxWarp prst="textNoShape">
-                <a:avLst/>
-              </a:prstTxWarp>
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr marL="0" indent="0" algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>Force_ReflectorR()</a:t>
-              </a:r>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="168" name="직사각형 167"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4205684" y="1640285"/>
-              <a:ext cx="64304" cy="191747"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln w="12700"/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-              <a:prstTxWarp prst="textNoShape">
-                <a:avLst/>
-              </a:prstTxWarp>
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr marL="0" indent="0" algn="ctr"/>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="169" name="직사각형 168"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5439066" y="1640261"/>
-              <a:ext cx="64304" cy="191747"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln w="12700"/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-              <a:prstTxWarp prst="textNoShape">
-                <a:avLst/>
-              </a:prstTxWarp>
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr marL="0" indent="0" algn="ctr"/>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="166" name="꺾인 연결선 5"/>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="168" idx="1"/>
-            <a:endCxn id="170" idx="3"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipH="1" flipV="1">
-            <a:off x="1532659" y="8715381"/>
-            <a:ext cx="260518" cy="11"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
+          <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-          <a:ln w="12700">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
+          <a:grpFill/>
+          <a:ln w="12700"/>
         </xdr:spPr>
         <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
           </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
           </a:fillRef>
           <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="dk1"/>
           </a:effectRef>
           <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
+            <a:schemeClr val="dk1"/>
           </a:fontRef>
         </xdr:style>
-      </xdr:cxnSp>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="169" name="직사각형 168"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5439066" y="1640261"/>
+            <a:ext cx="64304" cy="191747"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln w="12700"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>175</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>202</xdr:row>
+      <xdr:row>181</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="172" name="직사각형 171"/>
+        <xdr:cNvPr id="173" name="직사각형 172"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="688398" y="11507932"/>
-          <a:ext cx="2078182" cy="1753466"/>
+          <a:off x="769189" y="11066973"/>
+          <a:ext cx="2185358" cy="204876"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="3175"/>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -20330,15 +20147,59 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;Forces</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> on Inner</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Blocks&gt;</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -20346,26 +20207,2149 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>172</xdr:row>
-      <xdr:rowOff>64943</xdr:rowOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>679</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>16</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>175</xdr:row>
-      <xdr:rowOff>64942</xdr:rowOff>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>68292</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>68173</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="210" name="그룹 209"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3299337" y="12658240"/>
+          <a:ext cx="1305863" cy="263670"/>
+          <a:chOff x="4205684" y="1640261"/>
+          <a:chExt cx="1297686" cy="191771"/>
+        </a:xfrm>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="212" name="직사각형 211"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4269988" y="1640263"/>
+            <a:ext cx="1168456" cy="191769"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln w="12700"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Force_Block_V_F()</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="213" name="직사각형 212"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4205684" y="1640285"/>
+            <a:ext cx="64304" cy="191747"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln w="12700"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="214" name="직사각형 213"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5439066" y="1640261"/>
+            <a:ext cx="64304" cy="191747"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln w="12700"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>68258</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>679</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="211" name="꺾인 연결선 5"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="213" idx="1"/>
+          <a:endCxn id="215" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2886255" y="12159616"/>
+          <a:ext cx="547018" cy="35"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>1128</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>68292</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>68292</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>68292</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="176" name="그룹 175"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3299786" y="12139976"/>
+          <a:ext cx="1305414" cy="260684"/>
+          <a:chOff x="4205684" y="1632887"/>
+          <a:chExt cx="1297686" cy="192070"/>
+        </a:xfrm>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="178" name="직사각형 177"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4269987" y="1632887"/>
+            <a:ext cx="1168457" cy="191770"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln w="12700"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Force_Block_H()</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="179" name="직사각형 178"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4205684" y="1632887"/>
+            <a:ext cx="64302" cy="192050"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln w="12700"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="180" name="직사각형 179"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5438664" y="1632887"/>
+            <a:ext cx="64706" cy="192070"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln w="12700"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>68278</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>1128</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="177" name="꺾인 연결선 5"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="179" idx="1"/>
+          <a:endCxn id="181" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2886255" y="11613297"/>
+          <a:ext cx="547467" cy="15"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>68292</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>67613</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>68157</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="191" name="그룹 190"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3301779" y="13179592"/>
+          <a:ext cx="1302742" cy="263670"/>
+          <a:chOff x="4205684" y="1640261"/>
+          <a:chExt cx="1297686" cy="191771"/>
+        </a:xfrm>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="192" name="직사각형 191"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4269988" y="1640263"/>
+            <a:ext cx="1168456" cy="191769"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln w="12700"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Force_Block_D_F()</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="193" name="직사각형 192"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4205684" y="1640285"/>
+            <a:ext cx="64304" cy="191747"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln w="12700"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="194" name="직사각형 193"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5439066" y="1640261"/>
+            <a:ext cx="64304" cy="191747"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln w="12700"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>68291</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>68242</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>68292</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="195" name="꺾인 연결선 5"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="193" idx="1"/>
+          <a:endCxn id="189" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2886253" y="12705940"/>
+          <a:ext cx="546341" cy="51"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>61104</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>61103</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="173" name="직사각형 172"/>
+        <xdr:cNvPr id="222" name="직사각형 221"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="753342" y="11378045"/>
-          <a:ext cx="1883352" cy="194829"/>
+          <a:off x="769189" y="10240274"/>
+          <a:ext cx="2185358" cy="204876"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;Forces</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> on Reflectors</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>16051</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>3193</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="164" name="그룹 163"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1343526" y="11224461"/>
+          <a:ext cx="993617" cy="263877"/>
+          <a:chOff x="627256" y="8725068"/>
+          <a:chExt cx="989722" cy="260358"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="170" name="다이아몬드 169"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="627256" y="8725068"/>
+            <a:ext cx="911102" cy="260358"/>
+          </a:xfrm>
+          <a:prstGeom prst="diamond">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="12700"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:glow rad="50800">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>K==M2-1</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="171" name="직사각형 170"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1485083" y="8726891"/>
+            <a:ext cx="131895" cy="132818"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="800">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Y</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>68292</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>12761</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>3581</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="154" name="그룹 153"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1343526" y="10836555"/>
+          <a:ext cx="990327" cy="261144"/>
+          <a:chOff x="627256" y="8725068"/>
+          <a:chExt cx="989722" cy="260358"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="160" name="다이아몬드 159"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="627256" y="8725068"/>
+            <a:ext cx="911102" cy="260358"/>
+          </a:xfrm>
+          <a:prstGeom prst="diamond">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="12700"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:glow rad="50800">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>K==0</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="161" name="직사각형 160"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1485083" y="8726891"/>
+            <a:ext cx="131895" cy="132818"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="800">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Y</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>68292</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>68292</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="209" name="그룹 208"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="822158" y="12596174"/>
+          <a:ext cx="1955131" cy="391026"/>
+          <a:chOff x="795108" y="11702761"/>
+          <a:chExt cx="1315621" cy="259617"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="215" name="다이아몬드 214"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="795108" y="11702761"/>
+            <a:ext cx="1315621" cy="259617"/>
+          </a:xfrm>
+          <a:prstGeom prst="diamond">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="12700"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:glow rad="50800">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Core['ApplyForces']</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:glow rad="50800">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>['Block_V']==True</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="216" name="직사각형 215"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2016755" y="11746041"/>
+            <a:ext cx="93974" cy="86539"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="800">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Y</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>68292</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="188" name="그룹 187"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="822158" y="13117542"/>
+          <a:ext cx="1955131" cy="387905"/>
+          <a:chOff x="795108" y="11702761"/>
+          <a:chExt cx="1315621" cy="259617"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="189" name="다이아몬드 188"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="795108" y="11702761"/>
+            <a:ext cx="1315620" cy="259617"/>
+          </a:xfrm>
+          <a:prstGeom prst="diamond">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="12700"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:glow rad="50800">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Core['ApplyForces']</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:glow rad="50800">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>['Block_D']==True</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="190" name="직사각형 189"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2016755" y="11746041"/>
+            <a:ext cx="93974" cy="86539"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="800">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Y</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>66959</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>1791</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>3161</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>1814</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="156" name="꺾인 연결선 5"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="158" idx="1"/>
+          <a:endCxn id="160" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2338582" y="10385838"/>
+          <a:ext cx="1097173" cy="23"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>1695</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>1597</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>68292</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>1620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="166" name="꺾인 연결선 5"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="168" idx="1"/>
+          <a:endCxn id="170" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2341610" y="10795399"/>
+          <a:ext cx="1090984" cy="23"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="234" name="그룹 233"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="822158" y="12071684"/>
+          <a:ext cx="1955131" cy="391027"/>
+          <a:chOff x="837481" y="11886481"/>
+          <a:chExt cx="2048774" cy="409755"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="182" name="직사각형 181"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2737158" y="11954772"/>
+            <a:ext cx="149097" cy="136586"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="800">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Y</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="181" name="다이아몬드 180"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="837481" y="11886481"/>
+            <a:ext cx="2048774" cy="409755"/>
+          </a:xfrm>
+          <a:prstGeom prst="diamond">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="12700"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:glow rad="50800">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Core['ApplyForces']</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:glow rad="50800">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>['Block_H']==True</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3594</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>68292</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>3594</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>68292</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="231" name="직사각형 230"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="636198" y="13730377"/>
+          <a:ext cx="2458528" cy="204877"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;Body</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Forces</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="232" name="직사각형 231"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="632604" y="14071840"/>
+          <a:ext cx="2458528" cy="204877"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;Disp</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Sensor Damping</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>68292</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="233" name="직사각형 232"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="632604" y="14413302"/>
+          <a:ext cx="2458528" cy="204877"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;Assemble Forces&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>64697</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>64698</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>68292</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="247" name="직사각형 246"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="697301" y="7925519"/>
+          <a:ext cx="2321944" cy="204877"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20422,7 +22406,31 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>&lt;Normal Blocks&gt;</a:t>
+            <a:t>&lt;Froces</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> on Base</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -20431,812 +22439,355 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>64942</xdr:colOff>
-      <xdr:row>177</xdr:row>
-      <xdr:rowOff>64942</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>68292</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>7188</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>48</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>183</xdr:row>
-      <xdr:rowOff>64943</xdr:rowOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>7189</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="198" name="그룹 197"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="249" name="직사각형 248"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="758906" y="12243335"/>
-          <a:ext cx="2928630" cy="408215"/>
-          <a:chOff x="753340" y="11702760"/>
-          <a:chExt cx="2792558" cy="389660"/>
+          <a:off x="700896" y="8683924"/>
+          <a:ext cx="2321944" cy="204878"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="196" name="그룹 195"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="753340" y="11702760"/>
-            <a:ext cx="1365605" cy="389660"/>
-            <a:chOff x="753341" y="11702761"/>
-            <a:chExt cx="988137" cy="259762"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="181" name="다이아몬드 180"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="753340" y="11702760"/>
-              <a:ext cx="1298865" cy="389660"/>
-            </a:xfrm>
-            <a:prstGeom prst="diamond">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-            <a:ln w="12700"/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-              <a:prstTxWarp prst="textNoShape">
-                <a:avLst/>
-              </a:prstTxWarp>
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr marL="0" indent="0" algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst>
-                    <a:glow rad="50800">
-                      <a:schemeClr val="bg1"/>
-                    </a:glow>
-                  </a:effectLst>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>Core['ApplyForces']</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:pPr marL="0" indent="0" algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst>
-                    <a:glow rad="50800">
-                      <a:schemeClr val="bg1"/>
-                    </a:glow>
-                  </a:effectLst>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>['Block_H']==True</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="182" name="직사각형 181"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1987261" y="11767705"/>
-              <a:ext cx="131684" cy="132514"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="12700">
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-              <a:prstTxWarp prst="textNoShape">
-                <a:avLst/>
-              </a:prstTxWarp>
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr marL="0" indent="0" algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" altLang="ko-KR" sz="800">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>Y</a:t>
-              </a:r>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="176" name="그룹 175"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="2247778" y="11767705"/>
-            <a:ext cx="1298120" cy="259773"/>
-            <a:chOff x="4205684" y="1640261"/>
-            <a:chExt cx="1297686" cy="191771"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="178" name="직사각형 177"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4269988" y="1640263"/>
-              <a:ext cx="1168456" cy="191769"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln w="12700"/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-              <a:prstTxWarp prst="textNoShape">
-                <a:avLst/>
-              </a:prstTxWarp>
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr marL="0" indent="0" algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>Force_Block_H()</a:t>
-              </a:r>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="179" name="직사각형 178"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4205684" y="1640285"/>
-              <a:ext cx="64304" cy="191747"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln w="12700"/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-              <a:prstTxWarp prst="textNoShape">
-                <a:avLst/>
-              </a:prstTxWarp>
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr marL="0" indent="0" algn="ctr"/>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="180" name="직사각형 179"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5439066" y="1640261"/>
-              <a:ext cx="64304" cy="191747"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln w="12700"/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-              <a:prstTxWarp prst="textNoShape">
-                <a:avLst/>
-              </a:prstTxWarp>
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr marL="0" indent="0" algn="ctr"/>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="177" name="꺾인 연결선 5"/>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="179" idx="1"/>
-            <a:endCxn id="181" idx="3"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipH="1" flipV="1">
-            <a:off x="2052205" y="11897590"/>
-            <a:ext cx="195573" cy="18"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
             <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="12700">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-    </xdr:grpSp>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;Froces</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> on CSB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>64942</xdr:colOff>
-      <xdr:row>185</xdr:row>
-      <xdr:rowOff>64942</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>68292</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>68292</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>192</xdr:row>
-      <xdr:rowOff>15</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="208" name="그룹 207"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="251" name="직사각형 250"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="758906" y="12787621"/>
-          <a:ext cx="2928631" cy="411323"/>
-          <a:chOff x="753339" y="11702760"/>
-          <a:chExt cx="2792559" cy="389675"/>
+          <a:off x="700896" y="9427952"/>
+          <a:ext cx="2321944" cy="204878"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="209" name="그룹 208"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="753339" y="11702760"/>
-            <a:ext cx="1887266" cy="389675"/>
-            <a:chOff x="753340" y="11702761"/>
-            <a:chExt cx="1365605" cy="259772"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="215" name="다이아몬드 214"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="753340" y="11702761"/>
-              <a:ext cx="939843" cy="259772"/>
-            </a:xfrm>
-            <a:prstGeom prst="diamond">
-              <a:avLst/>
-            </a:prstGeom>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;Out of Bounds&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5013</xdr:colOff>
+      <xdr:row>227</xdr:row>
+      <xdr:rowOff>2361</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>5013</xdr:colOff>
+      <xdr:row>233</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="262" name="직사각형 261"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="631658" y="14941572"/>
+          <a:ext cx="2346158" cy="388665"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;Performance</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Measurement&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
             <a:solidFill>
-              <a:schemeClr val="bg1"/>
+              <a:schemeClr val="dk1"/>
             </a:solidFill>
-            <a:ln w="12700"/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-              <a:prstTxWarp prst="textNoShape">
-                <a:avLst/>
-              </a:prstTxWarp>
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr marL="0" indent="0" algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst>
-                    <a:glow rad="50800">
-                      <a:schemeClr val="bg1"/>
-                    </a:glow>
-                  </a:effectLst>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>Core['ApplyForces']</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:pPr marL="0" indent="0" algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst>
-                    <a:glow rad="50800">
-                      <a:schemeClr val="bg1"/>
-                    </a:glow>
-                  </a:effectLst>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>['Block_H']==True</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="216" name="직사각형 215"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1987261" y="11767705"/>
-              <a:ext cx="131684" cy="132514"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="12700">
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-              <a:prstTxWarp prst="textNoShape">
-                <a:avLst/>
-              </a:prstTxWarp>
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr marL="0" indent="0" algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" altLang="ko-KR" sz="800">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>Y</a:t>
-              </a:r>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="210" name="그룹 209"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="2247778" y="11767705"/>
-            <a:ext cx="1298120" cy="259773"/>
-            <a:chOff x="4205684" y="1640261"/>
-            <a:chExt cx="1297686" cy="191771"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="212" name="직사각형 211"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4269988" y="1640263"/>
-              <a:ext cx="1168456" cy="191769"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln w="12700"/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-              <a:prstTxWarp prst="textNoShape">
-                <a:avLst/>
-              </a:prstTxWarp>
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr marL="0" indent="0" algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>Force_Block_V()</a:t>
-              </a:r>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="213" name="직사각형 212"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4205684" y="1640285"/>
-              <a:ext cx="64304" cy="191747"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln w="12700"/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-              <a:prstTxWarp prst="textNoShape">
-                <a:avLst/>
-              </a:prstTxWarp>
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr marL="0" indent="0" algn="ctr"/>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="214" name="직사각형 213"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5439066" y="1640261"/>
-              <a:ext cx="64304" cy="191747"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln w="12700"/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-              <a:prstTxWarp prst="textNoShape">
-                <a:avLst/>
-              </a:prstTxWarp>
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr marL="0" indent="0" algn="ctr"/>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="211" name="꺾인 연결선 5"/>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="213" idx="1"/>
-            <a:endCxn id="215" idx="3"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipH="1" flipV="1">
-            <a:off x="2052202" y="11897584"/>
-            <a:ext cx="195576" cy="24"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="12700">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-    </xdr:grpSp>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>67805</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>67804</xdr:colOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="263" name="순서도: 수행의 시작/종료 262"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1375474" y="16076263"/>
+          <a:ext cx="949271" cy="203415"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartTerminator">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1" i="1"/>
+            <a:t>VectorField</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -21594,7 +23145,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="R1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="DB58" sqref="DB58"/>
     </sheetView>
   </sheetViews>
@@ -24669,8 +26220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BH191" sqref="BH191"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="CK127" sqref="CK127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0.875" defaultRowHeight="5.85" customHeight="1" x14ac:dyDescent="0.3"/>
